--- a/templates/AutomationOrg/Regular Work order complete Flow without reversals.xlsx
+++ b/templates/AutomationOrg/Regular Work order complete Flow without reversals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3F4D0-57EE-420E-9050-D0D2731A7906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603636C2-2F8B-46CA-9B06-9D237C39A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Site</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>WO Receipt Traveler</t>
-  </si>
-  <si>
-    <t>8/16/2021</t>
   </si>
   <si>
     <t>Inventory Location ID</t>
@@ -486,7 +483,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -557,7 +554,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +625,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -664,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,51 +693,48 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
